--- a/Technology/Louis Vuitton Moet Hennessy.xlsx
+++ b/Technology/Louis Vuitton Moet Hennessy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Growth Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F46F206-B3BB-D94D-A878-F5A74403F3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49477357-6138-D54F-B9F7-21F68AFF6868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -510,6 +510,9 @@
   </si>
   <si>
     <t>P/FCF</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -852,7 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -942,7 +945,6 @@
     <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -956,6 +958,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -974,23 +994,11 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2530,10 +2538,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD23" sqref="AD23"/>
+      <selection pane="bottomRight" activeCell="Z84" sqref="Z84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2808,16 +2816,16 @@
       <c r="AB3" s="15">
         <v>110600000000</v>
       </c>
-      <c r="AC3" s="63" t="s">
+      <c r="AC3" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="AD3" s="64" t="s">
+      <c r="AD3" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="64" t="s">
+      <c r="AE3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="64" t="s">
+      <c r="AF3" s="57" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2930,19 +2938,19 @@
         <f t="shared" ref="AB4" si="2">(AB3/AA3)-1</f>
         <v>4.933586337760909E-2</v>
       </c>
-      <c r="AC4" s="65">
+      <c r="AC4" s="58">
         <f>(W4+V4+U4)/3</f>
         <v>0.16774310808440043</v>
       </c>
-      <c r="AD4" s="65">
+      <c r="AD4" s="58">
         <f>(W20+V20+U20)/3</f>
         <v>0.22931209935446953</v>
       </c>
-      <c r="AE4" s="65">
+      <c r="AE4" s="58">
         <f>(W29+V29+U29)/3</f>
         <v>0.46187151904379231</v>
       </c>
-      <c r="AF4" s="65">
+      <c r="AF4" s="58">
         <f>(W105+V105+U105)/3</f>
         <v>0.21835462766282479</v>
       </c>
@@ -3091,16 +3099,16 @@
       <c r="W6" s="10">
         <v>54196000000</v>
       </c>
-      <c r="AC6" s="63" t="s">
+      <c r="AC6" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AD6" s="64" t="s">
+      <c r="AD6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="64" t="s">
+      <c r="AE6" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="AF6" s="64" t="s">
+      <c r="AF6" s="57" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3174,19 +3182,19 @@
       <c r="W7" s="2">
         <v>0.68440000000000001</v>
       </c>
-      <c r="AC7" s="65">
+      <c r="AC7" s="58">
         <f>W7</f>
         <v>0.68440000000000001</v>
       </c>
-      <c r="AD7" s="66">
+      <c r="AD7" s="59">
         <f>W21</f>
         <v>0.32900000000000001</v>
       </c>
-      <c r="AE7" s="66">
+      <c r="AE7" s="59">
         <f>W30</f>
         <v>0.1779</v>
       </c>
-      <c r="AF7" s="66">
+      <c r="AF7" s="59">
         <f>W106/W3</f>
         <v>0.16105526368963427</v>
       </c>
@@ -3359,16 +3367,16 @@
       <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="63" t="s">
+      <c r="AC9" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="AD9" s="64" t="s">
+      <c r="AD9" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="AE9" s="64" t="s">
+      <c r="AE9" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AF9" s="64" t="s">
+      <c r="AF9" s="57" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3442,19 +3450,19 @@
       <c r="W10" s="1">
         <v>5027000000</v>
       </c>
-      <c r="AC10" s="65">
+      <c r="AC10" s="58">
         <f>W9</f>
         <v>0</v>
       </c>
-      <c r="AD10" s="66">
+      <c r="AD10" s="59">
         <f>W13</f>
         <v>0.41899878763386544</v>
       </c>
-      <c r="AE10" s="66">
+      <c r="AE10" s="59">
         <f>W80</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="66">
+      <c r="AF10" s="59">
         <f>W89</f>
         <v>5.5528894726207312E-2</v>
       </c>
@@ -3600,16 +3608,16 @@
       <c r="W12" s="1">
         <v>33178000000</v>
       </c>
-      <c r="AC12" s="63" t="s">
+      <c r="AC12" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="AD12" s="64" t="s">
+      <c r="AD12" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="64" t="s">
+      <c r="AE12" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="AF12" s="64" t="s">
+      <c r="AF12" s="57" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3710,15 +3718,15 @@
       <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="65">
+      <c r="AC13" s="58">
         <f>W28/W72</f>
         <v>0.25555696684872348</v>
       </c>
-      <c r="AD13" s="66">
+      <c r="AD13" s="59">
         <f>W28/W54</f>
         <v>0.10460021092345854</v>
       </c>
-      <c r="AE13" s="66">
+      <c r="AE13" s="59">
         <f>W22/(W72+W56+W61)</f>
         <v>0.2326800137385466</v>
       </c>
@@ -3868,16 +3876,16 @@
       <c r="W15" s="1">
         <v>33181000000</v>
       </c>
-      <c r="AC15" s="63" t="s">
+      <c r="AC15" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="AD15" s="64" t="s">
+      <c r="AD15" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="AE15" s="64" t="s">
+      <c r="AE15" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="AF15" s="64" t="s">
+      <c r="AF15" s="57" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3955,20 +3963,20 @@
         <f>(W35+V35+U35+T35+S35)/5</f>
         <v>7.9344895169914653E-5</v>
       </c>
-      <c r="AD16" s="67">
+      <c r="AD16" s="60">
         <f>AE101/W3</f>
         <v>5.0894120024247327</v>
       </c>
-      <c r="AE16" s="67">
+      <c r="AE16" s="60">
         <f>AE101/W28</f>
         <v>28.614030105083781</v>
       </c>
-      <c r="AF16" s="68">
+      <c r="AF16" s="61">
         <f>AE101/W106</f>
         <v>31.600407747196737</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>382000000</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4109,8 +4117,11 @@
       <c r="W18" s="1">
         <v>6226000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC18" s="56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4180,8 +4191,12 @@
       <c r="W19" s="10">
         <v>26054000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC19" s="68">
+        <f>W40-W56-W61</f>
+        <v>-24294000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>102</v>
       </c>
@@ -4276,7 +4291,7 @@
       <c r="AA20" s="18"/>
       <c r="AB20" s="18"/>
     </row>
-    <row r="21" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4347,7 +4362,7 @@
         <v>0.32900000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4418,7 +4433,7 @@
         <v>21001000000</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4489,7 +4504,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4560,7 +4575,7 @@
         <v>-886000000</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4631,7 +4646,7 @@
         <v>20115000000</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4702,7 +4717,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4773,7 +4788,7 @@
         <v>5362000000</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4844,7 +4859,7 @@
         <v>14084000000</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>104</v>
       </c>
@@ -4939,7 +4954,7 @@
       <c r="AA29" s="18"/>
       <c r="AB29" s="18"/>
     </row>
-    <row r="30" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -5010,7 +5025,7 @@
         <v>0.1779</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -5081,7 +5096,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -5299,87 +5314,87 @@
         <v>154</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="56">
+      <c r="C35" s="55">
         <f>(C34-B34)/B34</f>
         <v>1.5984924399757156E-3</v>
       </c>
-      <c r="D35" s="56">
+      <c r="D35" s="55">
         <f t="shared" ref="D35:G35" si="7">(D34-C34)/C34</f>
         <v>2.0299699610447368E-3</v>
       </c>
-      <c r="E35" s="56">
+      <c r="E35" s="55">
         <f t="shared" si="7"/>
         <v>3.6979051185813075E-4</v>
       </c>
-      <c r="F35" s="56">
+      <c r="F35" s="55">
         <f t="shared" si="7"/>
         <v>-3.2608048082341745E-2</v>
       </c>
-      <c r="G35" s="56">
+      <c r="G35" s="55">
         <f t="shared" si="7"/>
         <v>7.2243810072294117E-3</v>
       </c>
-      <c r="H35" s="56">
+      <c r="H35" s="55">
         <f t="shared" ref="H35" si="8">(H34-G34)/G34</f>
         <v>5.0678536711124744E-3</v>
       </c>
-      <c r="I35" s="56">
+      <c r="I35" s="55">
         <f t="shared" ref="I35" si="9">(I34-H34)/H34</f>
         <v>-8.920847941377142E-3</v>
       </c>
-      <c r="J35" s="56">
+      <c r="J35" s="55">
         <f t="shared" ref="J35" si="10">(J34-I34)/I34</f>
         <v>-1.6245367177126757E-3</v>
       </c>
-      <c r="K35" s="56">
+      <c r="K35" s="55">
         <f t="shared" ref="K35" si="11">(K34-J34)/J34</f>
         <v>1.032282955856368E-2</v>
       </c>
-      <c r="L35" s="56">
+      <c r="L35" s="55">
         <f t="shared" ref="L35" si="12">(L34-K34)/K34</f>
         <v>2.5988666516375443E-2</v>
       </c>
-      <c r="M35" s="56">
+      <c r="M35" s="55">
         <f t="shared" ref="M35" si="13">(M34-L34)/L34</f>
         <v>2.036226624522814E-2</v>
       </c>
-      <c r="N35" s="56">
+      <c r="N35" s="55">
         <f t="shared" ref="N35" si="14">(N34-M34)/M34</f>
         <v>1.9663203997837232E-3</v>
       </c>
-      <c r="O35" s="56">
+      <c r="O35" s="55">
         <f t="shared" ref="O35" si="15">(O34-N34)/N34</f>
         <v>1.2802337037974656E-3</v>
       </c>
-      <c r="P35" s="56">
+      <c r="P35" s="55">
         <f t="shared" ref="P35" si="16">(P34-O34)/O34</f>
         <v>2.0505883505941899E-3</v>
       </c>
-      <c r="Q35" s="56">
+      <c r="Q35" s="55">
         <f t="shared" ref="Q35" si="17">(Q34-P34)/P34</f>
         <v>-5.0403950765631159E-4</v>
       </c>
-      <c r="R35" s="56">
+      <c r="R35" s="55">
         <f t="shared" ref="R35" si="18">(R34-Q34)/Q34</f>
         <v>-1.248746486258249E-3</v>
       </c>
-      <c r="S35" s="56">
+      <c r="S35" s="55">
         <f t="shared" ref="S35" si="19">(S34-R34)/R34</f>
         <v>-1.8283555245898739E-4</v>
       </c>
-      <c r="T35" s="56">
+      <c r="T35" s="55">
         <f t="shared" ref="T35" si="20">(T34-S34)/S34</f>
         <v>-1.5597374605327762E-4</v>
       </c>
-      <c r="U35" s="56">
+      <c r="U35" s="55">
         <f t="shared" ref="U35" si="21">(U34-T34)/T34</f>
         <v>7.3553377436183834E-4</v>
       </c>
-      <c r="V35" s="56">
+      <c r="V35" s="55">
         <f t="shared" ref="V35" si="22">(V34-U34)/U34</f>
         <v>0</v>
       </c>
-      <c r="W35" s="56">
+      <c r="W35" s="55">
         <f t="shared" ref="W35" si="23">(W34-V34)/V34</f>
         <v>0</v>
       </c>
@@ -8819,10 +8834,10 @@
       <c r="W83" s="1">
         <v>-4169000000</v>
       </c>
-      <c r="AD83" s="59" t="s">
+      <c r="AD83" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="AE83" s="60"/>
+      <c r="AE83" s="65"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -8894,10 +8909,10 @@
       <c r="W84" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AD84" s="61" t="s">
+      <c r="AD84" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="AE84" s="62"/>
+      <c r="AE84" s="67"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9621,10 +9636,10 @@
       <c r="W93" s="1">
         <v>-1523000000</v>
       </c>
-      <c r="AD93" s="61" t="s">
+      <c r="AD93" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="AE93" s="62"/>
+      <c r="AE93" s="67"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10005,10 +10020,10 @@
       <c r="W98" s="1">
         <v>-6025000000</v>
       </c>
-      <c r="AD98" s="61" t="s">
+      <c r="AD98" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="AE98" s="62"/>
+      <c r="AE98" s="67"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10730,10 +10745,10 @@
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="57" t="s">
+      <c r="X109" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="Y109" s="58"/>
+      <c r="Y109" s="63"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="X110" s="46" t="s">
@@ -10772,44 +10787,45 @@
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X114" s="48" t="s">
+      <c r="X114" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="Y114" s="49">
-        <v>501130000</v>
+      <c r="Y114" s="69">
+        <f>W34*(1+(5*AC16))</f>
+        <v>504410165.50073248</v>
       </c>
     </row>
     <row r="115" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X115" s="50" t="s">
+      <c r="X115" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="Y115" s="51">
+      <c r="Y115" s="50">
         <f>Y113/Y114</f>
-        <v>540.18871341605995</v>
+        <v>536.67588099747968</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
       <c r="X116" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="Y116" s="52">
+      <c r="Y116" s="51">
         <v>860.34</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X117" s="53" t="s">
+      <c r="X117" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="Y117" s="54">
+      <c r="Y117" s="53">
         <f>Y115/Y116-1</f>
-        <v>-0.37212181995948124</v>
+        <v>-0.37620489457949224</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="X118" s="53" t="s">
+      <c r="X118" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="Y118" s="55" t="str">
+      <c r="Y118" s="54" t="str">
         <f>IF(Y115&gt;Y116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
